--- a/Carte_nucleo/Project Outputs for Carte_Nucleo/BOM/Bill of Materials-Carte_Nucleo.xlsx
+++ b/Carte_nucleo/Project Outputs for Carte_Nucleo/BOM/Bill of Materials-Carte_Nucleo.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavierhueber/Desktop/HES_dete/Carte_nucleo/Project Outputs for Carte_Nucleo/BOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F582F7C-0148-534F-948C-EA24260BD9B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="6690" windowWidth="18180" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullPrecision="1" calcMode="auto" calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>Description</t>
   </si>
@@ -83,7 +67,7 @@
     <t>29/08/2022</t>
   </si>
   <si>
-    <t>13:26</t>
+    <t>14:42</t>
   </si>
   <si>
     <t>Name</t>
@@ -572,100 +556,145 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="#,##0.00_);\-#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="168" formatCode="[$-409]h:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="MS Sans Serif"/>
     </font>
     <font>
       <b/>
       <sz val="7.9"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="MS Sans Serif"/>
+      <charset val="0"/>
+      <color theme="1"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="0"/>
+      <color indexed="8"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <charset val="204"/>
+      <color indexed="8"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="13"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="13"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="24"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="47"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <color indexed="8"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <charset val="0"/>
+      <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -685,8 +714,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="64"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -826,6 +861,43 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -836,138 +908,174 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf xxid="0" numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf xxid="68" numFmtId="0" fontId="17" fillId="5" borderId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs>
+    <xf xxid="1" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="2" numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="3" numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="4" numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="5" numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="6" numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="7" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="8" numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="9" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="10" numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="11" numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="12" numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="13" numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="14" numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="15" numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="16" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="17" numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="18" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="19" numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="20" numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="21" numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="22" numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="23" numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="24" numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="25" numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="26" numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="27" numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="28" numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="29" numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xxid="30" numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="31" numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="32" numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xxid="33" numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xxid="34" numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="35" numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="36" numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="37" numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="38" numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="39" numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="40" numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="41" numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="42" numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="43" numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="44" numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf xxid="45" numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="46" numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="47" numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="48" numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="49" numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="50" numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="51" numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="52" numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf xxid="53" numFmtId="164" fontId="3" fillId="3" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="54" numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf xxid="55" numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xxid="56" numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="57" numFmtId="166" fontId="3" fillId="3" borderId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="58" numFmtId="165" fontId="3" fillId="3" borderId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf xxid="59" numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="60" numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="61" numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf xxid="62" numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xxid="63" numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf xxid="64" numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="65" numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="66" numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf xxid="67" numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyProtection="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -979,73 +1087,73 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="008080FF"/>
-      <rgbColor rgb="00802060"/>
-      <rgbColor rgb="00FFFFC0"/>
-      <rgbColor rgb="00A0E0E0"/>
-      <rgbColor rgb="00600080"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000080C0"/>
-      <rgbColor rgb="00C0C0FF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="0069FFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="00A6CAF0"/>
-      <rgbColor rgb="00CC9CCC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00E3E3E3"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="00339933"/>
-      <rgbColor rgb="00999933"/>
-      <rgbColor rgb="00996633"/>
-      <rgbColor rgb="00996666"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="003333CC"/>
-      <rgbColor rgb="00336666"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00663300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00424242"/>
+      <rgbColor rgb="0"/>
+      <rgbColor rgb="FFFFFF"/>
+      <rgbColor rgb="FF0000"/>
+      <rgbColor rgb="FF00"/>
+      <rgbColor rgb="FF"/>
+      <rgbColor rgb="FFFF00"/>
+      <rgbColor rgb="FF00FF"/>
+      <rgbColor rgb="FFFF"/>
+      <rgbColor rgb="0"/>
+      <rgbColor rgb="FFFFFF"/>
+      <rgbColor rgb="FF0000"/>
+      <rgbColor rgb="FF00"/>
+      <rgbColor rgb="FF"/>
+      <rgbColor rgb="FFFF00"/>
+      <rgbColor rgb="FF00FF"/>
+      <rgbColor rgb="FFFF"/>
+      <rgbColor rgb="800000"/>
+      <rgbColor rgb="8000"/>
+      <rgbColor rgb="80"/>
+      <rgbColor rgb="808000"/>
+      <rgbColor rgb="800080"/>
+      <rgbColor rgb="8080"/>
+      <rgbColor rgb="C0C0C0"/>
+      <rgbColor rgb="808080"/>
+      <rgbColor rgb="8080FF"/>
+      <rgbColor rgb="802060"/>
+      <rgbColor rgb="FFFFC0"/>
+      <rgbColor rgb="A0E0E0"/>
+      <rgbColor rgb="600080"/>
+      <rgbColor rgb="FF8080"/>
+      <rgbColor rgb="80C0"/>
+      <rgbColor rgb="C0C0FF"/>
+      <rgbColor rgb="80"/>
+      <rgbColor rgb="FF00FF"/>
+      <rgbColor rgb="FFFF00"/>
+      <rgbColor rgb="FFFF"/>
+      <rgbColor rgb="800080"/>
+      <rgbColor rgb="800000"/>
+      <rgbColor rgb="8080"/>
+      <rgbColor rgb="FF"/>
+      <rgbColor rgb="CCFF"/>
+      <rgbColor rgb="69FFFF"/>
+      <rgbColor rgb="CCFFCC"/>
+      <rgbColor rgb="FFFF99"/>
+      <rgbColor rgb="A6CAF0"/>
+      <rgbColor rgb="CC9CCC"/>
+      <rgbColor rgb="CC99FF"/>
+      <rgbColor rgb="E3E3E3"/>
+      <rgbColor rgb="3366FF"/>
+      <rgbColor rgb="33CCCC"/>
+      <rgbColor rgb="339933"/>
+      <rgbColor rgb="999933"/>
+      <rgbColor rgb="996633"/>
+      <rgbColor rgb="996666"/>
+      <rgbColor rgb="666699"/>
+      <rgbColor rgb="969696"/>
+      <rgbColor rgb="3333CC"/>
+      <rgbColor rgb="336666"/>
+      <rgbColor rgb="3300"/>
+      <rgbColor rgb="333300"/>
+      <rgbColor rgb="663300"/>
+      <rgbColor rgb="993366"/>
+      <rgbColor rgb="333399"/>
+      <rgbColor rgb="424242"/>
     </indexedColors>
   </colors>
-  <extLst>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -1073,20 +1181,14 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1" name="Image 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
+        <a:blip xmlns:d5p1="http://schemas.openxmlformats.org/officeDocument/2006/relationships" d5p1:embed="rId1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -1101,14 +1203,86 @@
           <a:off x="12017213" y="694764"/>
           <a:ext cx="5550789" cy="1187823"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
         </a:ln>
-        <a:extLst>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>845558</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>860524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134392</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:d5p1="http://schemas.openxmlformats.org/officeDocument/2006/relationships" d5p1:embed="rId1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12017213" y="694764"/>
+          <a:ext cx="5550789" cy="1187823"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+        <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
@@ -1420,66 +1594,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr/>
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" view="normal" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="12.75" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="2.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.796875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.796875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="10.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.796875" style="7" customWidth="1"/>
-    <col min="7" max="8" width="25.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="25.796875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.796875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.796875" style="4" customWidth="1"/>
-    <col min="12" max="13" width="15.796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.19921875" style="4" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="11.3984375" style="4"/>
+    <col min="2" max="2" width="25.73046875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.73046875" style="4" customWidth="1"/>
+    <col min="4" max="5" width="10.73046875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.73046875" style="7" customWidth="1"/>
+    <col min="7" max="8" width="25.73046875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="25.73046875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.73046875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.73046875" style="4" customWidth="1"/>
+    <col min="12" max="13" width="15.73046875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.12890625" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="11.3984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="14" thickBot="1">
-      <c r="A1" s="33"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A1" s="36"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" s="15" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="40"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="43"/>
     </row>
     <row r="3" spans="1:13" s="15" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
@@ -1487,18 +1661,18 @@
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="63" t="s">
         <v>14</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="24"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="26"/>
+      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" s="15" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16" t="s">
@@ -1506,18 +1680,18 @@
       </c>
       <c r="E4" s="16"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="22"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" s="15" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16" t="s">
@@ -1525,1394 +1699,1392 @@
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" s="15" customFormat="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="16"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="22"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="66" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
-      <c r="K7" s="24"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="20"/>
-      <c r="M7" s="27"/>
+      <c r="M7" s="30"/>
     </row>
     <row r="8" spans="1:13" s="15" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="28">
+      <c r="E8" s="27"/>
+      <c r="F8" s="31">
         <f ca="1">TODAY()</f>
         <v>44802</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="32">
         <f ca="1">NOW()</f>
-        <v>44802.583738310183</v>
+        <v>44802.613157199077</v>
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
-      <c r="K8" s="24"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="27"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="41" t="s">
+      <c r="L9" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="M9" s="45" t="s">
+      <c r="M9" s="48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24">
-      <c r="A10" s="34"/>
-      <c r="B10" s="43" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="37"/>
+      <c r="B10" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="33">
         <v>5</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30" t="s">
+      <c r="E10" s="33"/>
+      <c r="F10" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="31">
-        <v>0.37139</v>
-      </c>
-      <c r="L10" s="30">
-        <v>1.86</v>
-      </c>
-      <c r="M10" s="46"/>
+      <c r="K10" s="34">
+        <v>0.37057</v>
+      </c>
+      <c r="L10" s="33">
+        <v>1.85</v>
+      </c>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="34"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="35">
         <v>2</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="K11" s="32">
-        <v>0.39146999999999998</v>
-      </c>
-      <c r="L11" s="32">
-        <v>0.78293000000000001</v>
-      </c>
-      <c r="M11" s="47"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="43" t="s">
+      <c r="K11" s="35">
+        <v>0.3906</v>
+      </c>
+      <c r="L11" s="35">
+        <v>0.7812</v>
+      </c>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A12" s="37"/>
+      <c r="B12" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="33">
         <v>1</v>
       </c>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="I12" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="J12" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="K12" s="31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L12" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M12" s="46"/>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="44" t="s">
+      <c r="K12" s="34">
+        <v>1.1</v>
+      </c>
+      <c r="L12" s="33">
+        <v>1.1</v>
+      </c>
+      <c r="M12" s="49"/>
+    </row>
+    <row r="13" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A13" s="37"/>
+      <c r="B13" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="35">
         <v>1</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32" t="s">
+      <c r="E13" s="35"/>
+      <c r="F13" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="32" t="s">
+      <c r="I13" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="J13" s="32" t="s">
+      <c r="J13" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="K13" s="32">
-        <v>0.39146999999999998</v>
-      </c>
-      <c r="L13" s="32">
-        <v>0.39146999999999998</v>
-      </c>
-      <c r="M13" s="47"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="43" t="s">
+      <c r="K13" s="35">
+        <v>0.3906</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0.3906</v>
+      </c>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="33">
         <v>1</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="J14" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="34">
         <v>1.2</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="33">
         <v>1.2</v>
       </c>
-      <c r="M14" s="46"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="44" t="s">
+      <c r="M14" s="49"/>
+    </row>
+    <row r="15" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A15" s="37"/>
+      <c r="B15" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="35">
         <v>1</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="32">
-        <v>0.13048999999999999</v>
-      </c>
-      <c r="L15" s="32">
-        <v>0.13048999999999999</v>
-      </c>
-      <c r="M15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="43" t="s">
+      <c r="K15" s="35">
+        <v>0.1302</v>
+      </c>
+      <c r="L15" s="35">
+        <v>0.1302</v>
+      </c>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A16" s="37"/>
+      <c r="B16" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="33">
         <v>1</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="K16" s="31">
-        <v>0.93550999999999995</v>
-      </c>
-      <c r="L16" s="30">
-        <v>0.93550999999999995</v>
-      </c>
-      <c r="M16" s="46"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="44" t="s">
+      <c r="K16" s="34">
+        <v>0.93343</v>
+      </c>
+      <c r="L16" s="33">
+        <v>0.93343</v>
+      </c>
+      <c r="M16" s="49"/>
+    </row>
+    <row r="17" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A17" s="37"/>
+      <c r="B17" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="35">
         <v>1</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="32">
-        <v>1.7809999999999999E-2</v>
-      </c>
-      <c r="L17" s="32">
-        <v>71.239999999999995</v>
-      </c>
-      <c r="M17" s="47"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="30" t="s">
+      <c r="K17" s="35">
+        <v>0.01757</v>
+      </c>
+      <c r="L17" s="35">
+        <v>70.27</v>
+      </c>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A18" s="37"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="33">
+        <v>1</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="30">
+      <c r="I18" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" s="34">
+        <v>9.13</v>
+      </c>
+      <c r="L18" s="33">
+        <v>9.13</v>
+      </c>
+      <c r="M18" s="49"/>
+    </row>
+    <row r="19" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="35">
         <v>1</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>157</v>
-      </c>
-      <c r="K18" s="31">
-        <v>9.15</v>
-      </c>
-      <c r="L18" s="30">
-        <v>9.15</v>
-      </c>
-      <c r="M18" s="46"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="44" t="s">
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="32">
+      <c r="I19" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="35">
+        <v>0.44568</v>
+      </c>
+      <c r="L19" s="35">
+        <v>1337.05</v>
+      </c>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A20" s="37"/>
+      <c r="B20" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="33">
         <v>1</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="J19" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="32">
-        <v>0.44667000000000001</v>
-      </c>
-      <c r="L19" s="32">
-        <v>1340.02</v>
-      </c>
-      <c r="M19" s="47"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="43" t="s">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="30">
+      <c r="I20" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" s="34">
+        <v>0.54083</v>
+      </c>
+      <c r="L20" s="33">
+        <v>0.54083</v>
+      </c>
+      <c r="M20" s="49"/>
+    </row>
+    <row r="21" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="35">
         <v>1</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="30" t="s">
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="35">
+        <v>0.48004</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0.48004</v>
+      </c>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A22" s="37"/>
+      <c r="B22" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="33">
+        <v>1</v>
+      </c>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J20" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="31">
-        <v>0.54203000000000001</v>
-      </c>
-      <c r="L20" s="30">
-        <v>0.54203000000000001</v>
-      </c>
-      <c r="M20" s="46"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="32">
+      <c r="J22" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" s="34">
+        <v>0.73112</v>
+      </c>
+      <c r="L22" s="33">
+        <v>0.73112</v>
+      </c>
+      <c r="M22" s="49"/>
+    </row>
+    <row r="23" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="35">
         <v>1</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="32" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="35">
+        <v>3.96</v>
+      </c>
+      <c r="L23" s="35">
+        <v>3.96</v>
+      </c>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A24" s="37"/>
+      <c r="B24" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="33">
+        <v>1</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="K24" s="34">
+        <v>2.5</v>
+      </c>
+      <c r="L24" s="33">
+        <v>12.48</v>
+      </c>
+      <c r="M24" s="49"/>
+    </row>
+    <row r="25" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="35">
+        <v>4</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I25" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="35">
+        <v>0.4017</v>
+      </c>
+      <c r="L25" s="35">
+        <v>16.07</v>
+      </c>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A26" s="37"/>
+      <c r="B26" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="33">
+        <v>1</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="K26" s="34">
+        <v>0.47045</v>
+      </c>
+      <c r="L26" s="33">
+        <v>18.82</v>
+      </c>
+      <c r="M26" s="49"/>
+    </row>
+    <row r="27" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="35">
+        <v>1</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K27" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="L27" s="35">
+        <v>1.1</v>
+      </c>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A28" s="37"/>
+      <c r="B28" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="33">
+        <v>8</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="J21" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="32">
-        <v>0.48110000000000003</v>
-      </c>
-      <c r="L21" s="32">
-        <v>0.48110000000000003</v>
-      </c>
-      <c r="M21" s="47"/>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="43" t="s">
+      <c r="J28" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" s="34">
+        <v>0.02203</v>
+      </c>
+      <c r="L28" s="33">
+        <v>0.22034</v>
+      </c>
+      <c r="M28" s="49"/>
+    </row>
+    <row r="29" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A29" s="37"/>
+      <c r="B29" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="35">
+        <v>9</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="35">
+        <v>0.0018</v>
+      </c>
+      <c r="L29" s="35">
+        <v>144.22</v>
+      </c>
+      <c r="M29" s="50"/>
+    </row>
+    <row r="30" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A30" s="37"/>
+      <c r="B30" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="33">
+        <v>2</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="34">
+        <v>0.10015</v>
+      </c>
+      <c r="L30" s="33">
+        <v>0.20031</v>
+      </c>
+      <c r="M30" s="49"/>
+    </row>
+    <row r="31" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A31" s="37"/>
+      <c r="B31" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="K31" s="35">
+        <v>1.59</v>
+      </c>
+      <c r="L31" s="35">
+        <v>1.59</v>
+      </c>
+      <c r="M31" s="50"/>
+    </row>
+    <row r="32" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A32" s="37"/>
+      <c r="B32" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="33">
+        <v>1</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="K32" s="34">
+        <v>0.10015</v>
+      </c>
+      <c r="L32" s="33">
+        <v>0.10015</v>
+      </c>
+      <c r="M32" s="49"/>
+    </row>
+    <row r="33" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A33" s="37"/>
+      <c r="B33" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="35">
+        <v>1</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="K33" s="35">
+        <v>0.62095</v>
+      </c>
+      <c r="L33" s="35">
+        <v>0.62095</v>
+      </c>
+      <c r="M33" s="50"/>
+    </row>
+    <row r="34" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A34" s="37"/>
+      <c r="B34" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="33">
+        <v>2</v>
+      </c>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="K34" s="34">
+        <v>0.10015</v>
+      </c>
+      <c r="L34" s="33">
+        <v>0.20031</v>
+      </c>
+      <c r="M34" s="49"/>
+    </row>
+    <row r="35" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A35" s="37"/>
+      <c r="B35" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="K35" s="35">
+        <v>0.10015</v>
+      </c>
+      <c r="L35" s="35">
+        <v>0.20031</v>
+      </c>
+      <c r="M35" s="50"/>
+    </row>
+    <row r="36" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A36" s="37"/>
+      <c r="B36" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="33">
+        <v>1</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="K36" s="34">
+        <v>0.00381</v>
+      </c>
+      <c r="L36" s="33">
+        <v>19.03</v>
+      </c>
+      <c r="M36" s="49"/>
+    </row>
+    <row r="37" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A37" s="37"/>
+      <c r="B37" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="35">
+        <v>1</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="35">
+        <v>0.05679</v>
+      </c>
+      <c r="L37" s="35">
+        <v>0.05679</v>
+      </c>
+      <c r="M37" s="50"/>
+    </row>
+    <row r="38" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A38" s="37"/>
+      <c r="B38" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="33">
+        <v>1</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="34">
+        <v>0.00427</v>
+      </c>
+      <c r="L38" s="33">
+        <v>21.33</v>
+      </c>
+      <c r="M38" s="49"/>
+    </row>
+    <row r="39" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A39" s="37"/>
+      <c r="B39" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="35">
+        <v>1</v>
+      </c>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="K39" s="35">
+        <v>19.78</v>
+      </c>
+      <c r="L39" s="35">
+        <v>19.78</v>
+      </c>
+      <c r="M39" s="50"/>
+    </row>
+    <row r="40" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A40" s="37"/>
+      <c r="B40" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="33">
+        <v>1</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="K40" s="34"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="49"/>
+    </row>
+    <row r="41" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="35">
+        <v>1</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="K41" s="35">
+        <v>28.11</v>
+      </c>
+      <c r="L41" s="35">
+        <v>28.11</v>
+      </c>
+      <c r="M41" s="50"/>
+    </row>
+    <row r="42" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A42" s="37"/>
+      <c r="B42" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="33">
+        <v>1</v>
+      </c>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="K42" s="34">
+        <v>1.58</v>
+      </c>
+      <c r="L42" s="33">
+        <v>1.58</v>
+      </c>
+      <c r="M42" s="49"/>
+    </row>
+    <row r="43" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A43" s="37"/>
+      <c r="B43" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="35">
+        <v>3</v>
+      </c>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="K43" s="35">
+        <v>0.52819</v>
+      </c>
+      <c r="L43" s="35">
+        <v>10.56</v>
+      </c>
+      <c r="M43" s="50"/>
+    </row>
+    <row r="44" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A44" s="37"/>
+      <c r="B44" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="33">
+        <v>1</v>
+      </c>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="49"/>
+    </row>
+    <row r="45" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A45" s="37"/>
+      <c r="B45" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="35">
+        <v>2</v>
+      </c>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="K45" s="35">
+        <v>0.19139</v>
+      </c>
+      <c r="L45" s="35">
+        <v>727.29</v>
+      </c>
+      <c r="M45" s="50"/>
+    </row>
+    <row r="46" spans="1:13" customHeight="1" thickBot="1">
+      <c r="A46" s="37"/>
+      <c r="B46" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D46" s="33">
         <v>1</v>
       </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="30" t="s">
+      <c r="E46" s="33"/>
+      <c r="F46" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="J22" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" s="31">
-        <v>0.73275000000000001</v>
-      </c>
-      <c r="L22" s="30">
-        <v>0.73275000000000001</v>
-      </c>
-      <c r="M22" s="46"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="32">
-        <v>1</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J23" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="K23" s="32">
-        <v>3.96</v>
-      </c>
-      <c r="L23" s="32">
-        <v>3.96</v>
-      </c>
-      <c r="M23" s="47"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="30">
-        <v>1</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="H24" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="L24" s="30">
-        <v>12.51</v>
-      </c>
-      <c r="M24" s="46"/>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="32">
-        <v>4</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="32">
-        <v>0.40727999999999998</v>
-      </c>
-      <c r="L25" s="32">
-        <v>16.29</v>
-      </c>
-      <c r="M25" s="47"/>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="30">
-        <v>1</v>
-      </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="31">
-        <v>0.48359999999999997</v>
-      </c>
-      <c r="L26" s="30">
-        <v>19.34</v>
-      </c>
-      <c r="M26" s="46"/>
-    </row>
-    <row r="27" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="32">
-        <v>1</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J27" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" s="32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L27" s="32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M27" s="47"/>
-    </row>
-    <row r="28" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="30">
-        <v>8</v>
-      </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="31">
-        <v>2.2079999999999999E-2</v>
-      </c>
-      <c r="L28" s="30">
-        <v>0.22083</v>
-      </c>
-      <c r="M28" s="46"/>
-    </row>
-    <row r="29" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="32">
-        <v>9</v>
-      </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="J29" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="K29" s="32">
-        <v>1.81E-3</v>
-      </c>
-      <c r="L29" s="32">
-        <v>144.54</v>
-      </c>
-      <c r="M29" s="47"/>
-    </row>
-    <row r="30" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="30">
-        <v>2</v>
-      </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" s="31">
-        <v>0.10038</v>
-      </c>
-      <c r="L30" s="30">
-        <v>0.20075000000000001</v>
-      </c>
-      <c r="M30" s="46"/>
-    </row>
-    <row r="31" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="32">
-        <v>1</v>
-      </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="K31" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="L31" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="M31" s="47"/>
-    </row>
-    <row r="32" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="30">
-        <v>1</v>
-      </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="K32" s="31">
-        <v>0.10038</v>
-      </c>
-      <c r="L32" s="30">
-        <v>0.10038</v>
-      </c>
-      <c r="M32" s="46"/>
-    </row>
-    <row r="33" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="32">
-        <v>1</v>
-      </c>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="32">
-        <v>0.62233000000000005</v>
-      </c>
-      <c r="L33" s="32">
-        <v>0.62233000000000005</v>
-      </c>
-      <c r="M33" s="47"/>
-    </row>
-    <row r="34" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="30">
-        <v>2</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="31">
-        <v>0.10038</v>
-      </c>
-      <c r="L34" s="30">
-        <v>0.20075000000000001</v>
-      </c>
-      <c r="M34" s="46"/>
-    </row>
-    <row r="35" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="32">
-        <v>2</v>
-      </c>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="K35" s="32">
-        <v>0.10038</v>
-      </c>
-      <c r="L35" s="32">
-        <v>0.20075000000000001</v>
-      </c>
-      <c r="M35" s="47"/>
-    </row>
-    <row r="36" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="30">
-        <v>1</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K36" s="31">
-        <v>3.81E-3</v>
-      </c>
-      <c r="L36" s="30">
-        <v>19.07</v>
-      </c>
-      <c r="M36" s="46"/>
-    </row>
-    <row r="37" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="32">
-        <v>1</v>
-      </c>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="32">
-        <v>5.6910000000000002E-2</v>
-      </c>
-      <c r="L37" s="32">
-        <v>5.6910000000000002E-2</v>
-      </c>
-      <c r="M37" s="47"/>
-    </row>
-    <row r="38" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="30">
-        <v>1</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H38" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="31">
-        <v>4.28E-3</v>
-      </c>
-      <c r="L38" s="30">
-        <v>21.38</v>
-      </c>
-      <c r="M38" s="46"/>
-    </row>
-    <row r="39" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="32">
-        <v>1</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="I39" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="K39" s="32">
-        <v>20.059999999999999</v>
-      </c>
-      <c r="L39" s="32">
-        <v>20.059999999999999</v>
-      </c>
-      <c r="M39" s="47"/>
-    </row>
-    <row r="40" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A40" s="34"/>
-      <c r="B40" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="30">
-        <v>1</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="K40" s="31"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="46"/>
-    </row>
-    <row r="41" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A41" s="34"/>
-      <c r="B41" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="32">
-        <v>1</v>
-      </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="H41" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>173</v>
-      </c>
-      <c r="K41" s="32">
-        <v>28.18</v>
-      </c>
-      <c r="L41" s="32">
-        <v>28.18</v>
-      </c>
-      <c r="M41" s="47"/>
-    </row>
-    <row r="42" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="30">
-        <v>1</v>
-      </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="H42" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="J42" s="30" t="s">
-        <v>174</v>
-      </c>
-      <c r="K42" s="31">
-        <v>1.6</v>
-      </c>
-      <c r="L42" s="30">
-        <v>1.6</v>
-      </c>
-      <c r="M42" s="46"/>
-    </row>
-    <row r="43" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A43" s="34"/>
-      <c r="B43" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="32">
-        <v>3</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="K43" s="32">
-        <v>0.53552</v>
-      </c>
-      <c r="L43" s="32">
-        <v>10.71</v>
-      </c>
-      <c r="M43" s="47"/>
-    </row>
-    <row r="44" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A44" s="34"/>
-      <c r="B44" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D44" s="30">
-        <v>1</v>
-      </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="H44" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="46"/>
-    </row>
-    <row r="45" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A45" s="34"/>
-      <c r="B45" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="32">
-        <v>2</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H45" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="J45" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="K45" s="32">
-        <v>0.19181999999999999</v>
-      </c>
-      <c r="L45" s="32">
-        <v>728.91</v>
-      </c>
-      <c r="M45" s="47"/>
-    </row>
-    <row r="46" spans="1:13" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A46" s="34"/>
-      <c r="B46" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="30">
-        <v>1</v>
-      </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="30" t="s">
+      <c r="J46" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="K46" s="31">
-        <v>3.23</v>
-      </c>
-      <c r="L46" s="30">
-        <v>3.23</v>
-      </c>
-      <c r="M46" s="46"/>
+      <c r="K46" s="34">
+        <v>3.22</v>
+      </c>
+      <c r="L46" s="33">
+        <v>3.22</v>
+      </c>
+      <c r="M46" s="49"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="5"/>
@@ -2929,7 +3101,7 @@
       <c r="L47" s="14"/>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="2:12">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="E48" s="6"/>
@@ -2940,34 +3112,25 @@
     <row r="49" spans="13:13">
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="13:13" ht="20">
+    <row r="50" spans="13:13" ht="20.25">
       <c r="M50" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B9:L9">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" operator="equal" stopIfTrue="1" priority="1">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0" footer="0"/>
+  <pageMargins left="0.787401575" right="0.787401575" top="0.984251969" bottom="0.984251969" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="97" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="7" max="1048575" man="1"/>
+    <brk id="7" max="65535" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100779A4DED164A1D458705B52D8A7414A4" ma:contentTypeVersion="9" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="b8d76807ce1f0208101c57dee3653651">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b230bda0-8e55-4ae6-b271-c19be5a3d0fe" xmlns:ns3="dc63bc7f-12e8-4e6d-a36b-4c16415d5a58" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0aebf584ed937d5def4bfe59fd8eee4e" ns2:_="" ns3:_="">
     <xsd:import namespace="b230bda0-8e55-4ae6-b271-c19be5a3d0fe"/>
@@ -3150,6 +3313,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -3162,39 +3334,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2844C43A-6167-4D1A-AC51-B0B79474A824}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF480E95-9C45-40EB-9D0E-698F19A1E341}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF480E95-9C45-40EB-9D0E-698F19A1E341}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b230bda0-8e55-4ae6-b271-c19be5a3d0fe"/>
-    <ds:schemaRef ds:uri="dc63bc7f-12e8-4e6d-a36b-4c16415d5a58"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2844C43A-6167-4D1A-AC51-B0B79474A824}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C29C9A-4517-44D9-9DD5-16F75FD5A164}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b230bda0-8e55-4ae6-b271-c19be5a3d0fe"/>
-    <ds:schemaRef ds:uri="dc63bc7f-12e8-4e6d-a36b-4c16415d5a58"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C29C9A-4517-44D9-9DD5-16F75FD5A164}"/>
 </file>